--- a/dsc650/assignments/assignment01/week1_calc.xlsx
+++ b/dsc650/assignments/assignment01/week1_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\git_repos\dsc650\dsc650\assignments\assignment01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E8F6D-9CE2-4D4F-BC5B-06B0883F106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0D1B9-BE06-4C1C-B936-98FAD426F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8DD9F2A-AC32-407A-B159-2768D3481A1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -118,6 +118,45 @@
   </si>
   <si>
     <t>https://www.videoproc.com/edit-4k-video/video-size-calculator.htm</t>
+  </si>
+  <si>
+    <t>15mins,30fps,8-bit Bit Depth</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Yearly Twitter Tweets (Uncompressed)</t>
+  </si>
+  <si>
+    <t>Yearly Twitter Tweets (Snappy Compressed)</t>
+  </si>
+  <si>
+    <t>Yearly Instagram Photos</t>
+  </si>
+  <si>
+    <t>Yearly YouTube Videos</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Twitter Tweets (uncom)</t>
+  </si>
+  <si>
+    <t>Twitter Tweets (compressed)</t>
+  </si>
+  <si>
+    <t>Instagram photos</t>
+  </si>
+  <si>
+    <t>Youtube Videos</t>
+  </si>
+  <si>
+    <t># HD</t>
+  </si>
+  <si>
+    <t># Failures</t>
   </si>
 </sst>
 </file>
@@ -173,11 +212,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -494,18 +536,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C9077C-2526-466E-9E9A-B0F1EDF4A584}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" customWidth="1"/>
@@ -630,16 +673,23 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <f>15*60*30*4096*2160*8</f>
+        <v>1911029760000</v>
+      </c>
+      <c r="G8" s="1">
+        <f>(E8/8)/1024/1024/1024</f>
+        <v>222.47314453125</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -661,6 +711,9 @@
       <c r="J9" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -749,6 +802,90 @@
       </c>
       <c r="G16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C13*365</f>
+        <v>21755.695343017578</v>
+      </c>
+      <c r="E17" s="3">
+        <f>C17*3</f>
+        <v>65267.086029052734</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C15*365</f>
+        <v>11931867.599487305</v>
+      </c>
+      <c r="E19" s="3">
+        <f>3*C19</f>
+        <v>35795602.798461914</v>
+      </c>
+      <c r="F19">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C16*365</f>
+        <v>513281250</v>
+      </c>
+      <c r="E20" s="3">
+        <f>C20*3</f>
+        <v>1539843750</v>
+      </c>
+      <c r="F20">
+        <v>153984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/dsc650/assignments/assignment01/week1_calc.xlsx
+++ b/dsc650/assignments/assignment01/week1_calc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\git_repos\dsc650\dsc650\assignments\assignment01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0D1B9-BE06-4C1C-B936-98FAD426F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C83B6C-4C23-440B-90DA-FDA677B52C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8DD9F2A-AC32-407A-B159-2768D3481A1D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{F8DD9F2A-AC32-407A-B159-2768D3481A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +39,24 @@
     <t>Description</t>
   </si>
   <si>
+    <t>size(B)</t>
+  </si>
+  <si>
+    <t>Size(KB)</t>
+  </si>
+  <si>
+    <t>size(MB)</t>
+  </si>
+  <si>
+    <t>Size(GB)</t>
+  </si>
+  <si>
     <t>in GB</t>
   </si>
   <si>
+    <t>HDFS (*3) (in GB)</t>
+  </si>
+  <si>
     <t>1 HD = 10 TB</t>
   </si>
   <si>
@@ -51,24 +66,15 @@
     <t>1024 X 768 PNG Image</t>
   </si>
   <si>
-    <t>size(B)</t>
-  </si>
-  <si>
-    <t>Size(KB)</t>
-  </si>
-  <si>
-    <t>size(MB)</t>
-  </si>
-  <si>
-    <t>Size(GB)</t>
-  </si>
-  <si>
     <t>1024 X 768 RAW Image</t>
   </si>
   <si>
     <t>HD (1080p) HEVC Video (15 minutes)</t>
   </si>
   <si>
+    <t>https://www.videoproc.com/edit-4k-video/video-size-calculator.htm</t>
+  </si>
+  <si>
     <t>HD (1080p) Uncompressed Video (15 minutes)</t>
   </si>
   <si>
@@ -81,25 +87,31 @@
     <t>Human Genome (Uncompressed)</t>
   </si>
   <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>size in GB</t>
+  </si>
+  <si>
+    <t>HDFS (*3) in GB</t>
+  </si>
+  <si>
+    <t># HD (10 TB each)</t>
+  </si>
+  <si>
+    <t>Daily Twitter Tweets (Uncompressed)</t>
+  </si>
+  <si>
     <t>&lt; 1</t>
   </si>
   <si>
-    <t>HDFS (*3) (in GB)</t>
-  </si>
-  <si>
-    <t>Daily Twitter Tweets (Uncompressed)</t>
-  </si>
-  <si>
-    <t>size in GB</t>
-  </si>
-  <si>
-    <t>HDFS (*3) in GB</t>
+    <t>500 M tweets per day with avg 128 B each</t>
   </si>
   <si>
     <t>Daily Twitter Tweets (Snappy Compressed)</t>
   </si>
   <si>
-    <t>500 M tweets per day with avg 128 B each</t>
+    <t>&lt;1</t>
   </si>
   <si>
     <t>Daily Instagram Photos</t>
@@ -114,18 +126,6 @@
     <t>500 hours of video every min. (HD HEVC format at 30 fps)</t>
   </si>
   <si>
-    <t># HD (10 TB each)</t>
-  </si>
-  <si>
-    <t>https://www.videoproc.com/edit-4k-video/video-size-calculator.htm</t>
-  </si>
-  <si>
-    <t>15mins,30fps,8-bit Bit Depth</t>
-  </si>
-  <si>
-    <t>Scaling</t>
-  </si>
-  <si>
     <t>Yearly Twitter Tweets (Uncompressed)</t>
   </si>
   <si>
@@ -141,6 +141,12 @@
     <t>Reliability</t>
   </si>
   <si>
+    <t># HD</t>
+  </si>
+  <si>
+    <t># Failures</t>
+  </si>
+  <si>
     <t>Twitter Tweets (uncom)</t>
   </si>
   <si>
@@ -151,12 +157,6 @@
   </si>
   <si>
     <t>Youtube Videos</t>
-  </si>
-  <si>
-    <t># HD</t>
-  </si>
-  <si>
-    <t># Failures</t>
   </si>
 </sst>
 </file>
@@ -214,10 +214,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,20 +539,20 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -560,30 +560,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>128</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -610,7 +610,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -626,12 +626,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>500</v>
+        <v>2949</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -640,18 +640,18 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>156.43</v>
+        <v>209.95</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -661,11 +661,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7">
+        <f>450*15</f>
+        <v>6750</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -673,22 +676,19 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="1">
-        <f>15*60*30*4096*2160*8</f>
-        <v>1911029760000</v>
+        <v>680</v>
       </c>
       <c r="G8" s="1">
         <f>(E8/8)/1024/1024/1024</f>
-        <v>222.47314453125</v>
+        <v>7.9162418842315674E-8</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -696,7 +696,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -721,19 +721,19 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <f>500000000*B2</f>
         <v>64000000000</v>
       </c>
       <c r="C13" s="1">
-        <f>(((B13/1024)/1024)/1024)</f>
+        <f>B13/1024/1024/1024</f>
         <v>59.604644775390625</v>
       </c>
       <c r="D13" s="1"/>
@@ -742,24 +742,36 @@
         <v>178.81393432617188</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <f>128*500000000/1.5</f>
+        <v>42666666666.666664</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14/1024/1024/1024</f>
+        <v>39.736429850260414</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <f>3*C14</f>
+        <v>119.20928955078125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <f>75000000*C3</f>
@@ -778,12 +790,12 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <f>(24*60)*500</f>
@@ -791,17 +803,17 @@
       </c>
       <c r="C16" s="3">
         <f>((D5*4)/1024)*B16</f>
-        <v>1406250</v>
+        <v>8294062.5</v>
       </c>
       <c r="E16" s="3">
         <f>3*C16</f>
-        <v>4218750</v>
+        <v>24882187.5</v>
       </c>
       <c r="F16">
-        <v>430</v>
+        <v>2500</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -824,6 +836,13 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
+      <c r="E18" s="3">
+        <f>E17/1.5</f>
+        <v>43511.390686035156</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
@@ -847,11 +866,11 @@
       </c>
       <c r="C20" s="3">
         <f>C16*365</f>
-        <v>513281250</v>
+        <v>3027332812.5</v>
       </c>
       <c r="E20" s="3">
         <f>C20*3</f>
-        <v>1539843750</v>
+        <v>9081998437.5</v>
       </c>
       <c r="F20">
         <v>153984</v>
@@ -862,30 +881,58 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>B23*0.03</f>
+        <v>0.21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C26" si="0">B24*0.03</f>
+        <v>0.21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>3579</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>107.36999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>153984</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4619.5199999999995</v>
       </c>
     </row>
   </sheetData>
